--- a/login_data.xlsx
+++ b/login_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9083894h5o;</t>
+          <t>sdfghjkl</t>
         </is>
       </c>
     </row>
